--- a/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -757,12 +757,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2628700.26</t>
+          <t>2631981.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>852358.00</t>
+          <t>873168.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>530</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2659332.59</t>
+          <t>2687400.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2543766.45</t>
+          <t>2563279.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>280532.77</t>
+          <t>363767.27</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4117,12 +4117,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1299253.14</t>
+          <t>1308853.14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5823780.39</t>
+          <t>5860114.39</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4747,12 +4747,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2261017.74</t>
+          <t>2306017.74</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1711097.68</t>
+          <t>1756097.68</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>312957.62</t>
+          <t>357957.62</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>737</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5077130.94</t>
+          <t>5120130.94</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1205060.00</t>
+          <t>1250060.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
